--- a/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
+++ b/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\think\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git121105\saisk\springmvc_mybatis_db\res\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569EF324-A8E2-4C6B-8B6D-3B1643942BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5315729-5A0C-4FDE-B9D2-D01A1E80EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINGMVC架构说明" sheetId="1" r:id="rId1"/>
     <sheet name="SVN上传方法" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>JAVA文件</t>
   </si>
@@ -58,7 +59,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -79,7 +80,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -90,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -139,7 +140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -153,7 +154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -164,7 +165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -200,7 +201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -211,7 +212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -263,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -274,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -285,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -296,7 +297,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -307,7 +308,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -328,7 +329,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -339,7 +340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -350,7 +351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -371,7 +372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -392,7 +393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -403,7 +404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -424,7 +425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -435,7 +436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -446,7 +447,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -457,7 +458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -478,7 +479,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -507,7 +508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -518,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -535,7 +536,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -546,7 +547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -572,7 +573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -583,7 +584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -614,7 +615,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -635,7 +636,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -646,7 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -673,7 +674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -690,7 +691,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -701,7 +702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -711,7 +712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -722,7 +723,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,7 +739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -755,7 +756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +767,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -779,7 +780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -790,7 +791,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -800,7 +801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -811,7 +812,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -827,7 +828,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -852,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -863,7 +864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -882,23 +883,27 @@
   <si>
     <t>最终确认</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOMCAT 服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -906,7 +911,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -914,9 +919,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1069,15 +1081,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1086,7 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3416,6 +3426,1121 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BA84A8-67AE-4164-9654-74103218F54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="177800"/>
+          <a:ext cx="1758950" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>各种配置文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA4EBF1-DEBE-4317-AB33-9826F935EEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2882900" y="666750"/>
+          <a:ext cx="869950" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BD85DC-8CB4-4C1A-B897-06C5EC1F5C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3949700" y="660400"/>
+          <a:ext cx="939800" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mapper xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5909E0-BC1E-AD36-0EC6-537D9A7632F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="6350"/>
+          <a:ext cx="10033000" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C882F135-DF8B-4605-A16B-14A89873FC94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4965700" y="673100"/>
+          <a:ext cx="2051050" cy="488950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>controler01 java</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>controler02 java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3ACF2B-7613-FAAF-CC8F-5BE58782E05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="800100"/>
+          <a:ext cx="1657350" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> mapping 01</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 処理 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61519F65-C1DA-4D82-AF33-A79CE6D38BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="3022600"/>
+          <a:ext cx="1758950" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7743914E-611C-4809-82FC-8F99E3772235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="3022600"/>
+          <a:ext cx="1758950" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 処理 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01AD5A8-7E86-41D7-91C1-41DA65E2DEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="3022600"/>
+          <a:ext cx="1758950" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 処理 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD8EA2D-87A1-47C0-9AB1-4B6575920ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="3022600"/>
+          <a:ext cx="1758950" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6686FC-3266-4394-A742-3C29218503F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6565900" y="1041400"/>
+          <a:ext cx="1657350" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> mapping 02</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E39409-FE9E-4888-A0AF-5244281F0076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6737350" y="1327150"/>
+          <a:ext cx="1657350" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> mapping 03</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CEDB27-85BF-6174-CC70-A540855660B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3521075" y="1228725"/>
+          <a:ext cx="4702175" cy="1793875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7158"/>
+            <a:gd name="adj2" fmla="val 55221"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4CE245-8ACB-4284-B074-D918CE5A9656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3155950" y="-387349"/>
+          <a:ext cx="1793875" cy="5026025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="爆発: 8 pt 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B08F061-1461-D223-7925-89987BC69902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1003300" y="2755900"/>
+          <a:ext cx="1073150" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C5BD1F-E497-8CD1-D0CD-81851A001354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8489950" y="1333500"/>
+          <a:ext cx="1155700" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>service.java</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mapper.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3672,7 +4797,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -3686,14 +4838,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F3:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:12">
+    <row r="3" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -3701,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="10:12">
+    <row r="4" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>1</v>
       </c>
@@ -3709,12 +4861,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="10:12">
+    <row r="5" spans="10:12" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="10:12">
+    <row r="6" spans="10:12" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -3722,7 +4874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="10:12">
+    <row r="12" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>7</v>
       </c>
@@ -3730,31 +4882,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="10:12">
+    <row r="14" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="10:12">
+    <row r="15" spans="10:12" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="19.5" thickBot="1"/>
-    <row r="19" spans="6:11" ht="19.5" thickBot="1">
-      <c r="F19" s="12" t="s">
+    <row r="18" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="6:11" ht="19.5" thickBot="1"/>
-    <row r="21" spans="6:11">
+    <row r="20" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
@@ -3768,43 +4920,39 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="6:11">
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F22" s="5"/>
-      <c r="G22" s="6" t="s">
+      <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="6:11">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F23" s="5"/>
-      <c r="G23" s="6" t="s">
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="6:11" ht="19.5" thickBot="1">
-      <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
+    <row r="24" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
     </row>
-    <row r="26" spans="6:11" ht="19.5" thickBot="1">
+    <row r="26" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
         <v>22</v>
       </c>
@@ -3812,7 +4960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="6:11">
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
@@ -3824,181 +4972,143 @@
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="6:11">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F28" s="5"/>
-      <c r="G28" s="6" t="s">
+      <c r="G28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="6:11">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F29" s="5"/>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="6:11">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F30" s="5"/>
-      <c r="G30" s="6" t="s">
+      <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="6:11">
+    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F31" s="5"/>
-      <c r="G31" s="6" t="s">
+      <c r="G31" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
+      <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="6:11">
+    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
+      <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="6:11">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F33" s="5"/>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="6:11">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F34" s="5"/>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
+      <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="6:11">
+    <row r="35" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F35" s="5"/>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="6:11">
+    <row r="36" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F36" s="5"/>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="6:11">
+    <row r="37" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
+      <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="6:11">
+    <row r="38" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F38" s="5"/>
-      <c r="G38" s="6" t="s">
+      <c r="G38" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="6:11">
+    <row r="39" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F39" s="5"/>
-      <c r="G39" s="6" t="s">
+      <c r="G39" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="6:11">
+    <row r="40" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="8"/>
+      <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="6:11">
+    <row r="41" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F41" s="5"/>
-      <c r="G41" s="6" t="s">
+      <c r="G41" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="8"/>
+      <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="6:11">
+    <row r="42" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="8"/>
+      <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="6:11" ht="19.5" thickBot="1">
-      <c r="F43" s="9"/>
-      <c r="G43" s="10" t="s">
+    <row r="43" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="8"/>
+      <c r="G43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4012,67 +5122,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5698DD45-36FB-4993-BBDC-21545EBCE673}">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="17" customFormat="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="17" customFormat="1">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="17" customFormat="1">
-      <c r="A60" s="18" t="s">
+    <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="16:16">
+    <row r="70" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="17" customFormat="1">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="11:11">
-      <c r="K190" s="16" t="s">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K190" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K197" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:11" s="17" customFormat="1">
-      <c r="A208" s="18" t="s">
+    <row r="208" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="2:2" s="19" customFormat="1">
-      <c r="B214" s="19" t="s">
+    <row r="214" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4082,4 +5192,27 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9219E7B3-F83B-482A-A7A2-ED8AEB0B28D9}">
+  <dimension ref="C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
+++ b/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git121105\saisk\springmvc_mybatis_db\res\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5315729-5A0C-4FDE-B9D2-D01A1E80EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FFD827-76D6-4EAA-9917-4EBC46695596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="SPRINGMVC架构说明" sheetId="1" r:id="rId1"/>
     <sheet name="SVN上传方法" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4537,6 +4538,251 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>mapper.java</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD09D0D-1ED4-7FCB-9ED9-F813914E3B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1651000"/>
+          <a:ext cx="5359400" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27065105-BECF-9D5A-4611-0F30B32B0469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2101850" y="2025650"/>
+          <a:ext cx="1657350" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5E2E6B-9AA4-49AB-9A76-B88B7626DFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2578100"/>
+          <a:ext cx="1657350" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3747B9-D52E-4202-B5EC-FC6777B2BEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="3187700"/>
+          <a:ext cx="1657350" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5199,7 +5445,7 @@
   <dimension ref="C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5215,4 +5461,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFACCBC8-1D36-4A21-B9CC-CAF17FE9B0D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
+++ b/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git121105\saisk\springmvc_mybatis_db\res\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git011704\saisk\springmvc_mybatis_db\res\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FFD827-76D6-4EAA-9917-4EBC46695596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE20A04-084E-42DD-BE03-B122CAC0759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5084,7 +5084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F3:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5368,7 +5370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5698DD45-36FB-4993-BBDC-21545EBCE673}">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5445,7 +5447,7 @@
   <dimension ref="C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
+++ b/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git011704\saisk\springmvc_mybatis_db\res\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git050701\saisk\springmvc_mybatis_db\res\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE20A04-084E-42DD-BE03-B122CAC0759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE35F22-0E6F-478A-91C0-4B82F58EA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINGMVC架构说明" sheetId="1" r:id="rId1"/>
     <sheet name="SVN上传方法" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="SPRINGMVC框架" sheetId="3" r:id="rId3"/>
+    <sheet name="写代码的先后流程" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>JAVA文件</t>
   </si>
@@ -889,12 +889,470 @@
     <t>TOMCAT 服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作数据库的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建表语句,在数据库里成功执行。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/src/org/mybatis/generator/GeneratorSqlmapMysql.java</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/res/generatorConfigMysql.xml</t>
+  </si>
+  <si>
+    <t>在下面的配置文件里，追加表名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tableName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"CUSTOMERS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enableCountByExample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>enableUpdateByExample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enableDeleteByExample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>enableSelectByExample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>selectByExampleQueryId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>执行下面的JAVA代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动把original包下面的文件删除。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/src/cn/itcast/ssm/mapper/original</t>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/src/cn/itcast/ssm/po/original</t>
+  </si>
+  <si>
+    <t>SQL文相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和表定义相关的字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/config/spring/applicationContext-service.xml</t>
+  </si>
+  <si>
+    <t>在下面的配置文件里，追加相应的service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"jLeagueService"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"cn.itcast.ssm.service.impl.JleagueServiceImpl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>实现service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/src/cn/itcast/ssm/service</t>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/src/cn/itcast/ssm/service/impl</t>
+  </si>
+  <si>
+    <t>JleagueServiceImpl.java</t>
+  </si>
+  <si>
+    <t>JleagueService.java</t>
+  </si>
+  <si>
+    <t>/springmvc_mybatis_db/src/cn/itcast/ssm/controller</t>
+  </si>
+  <si>
+    <t>追加controller类，用于接收画面过来的请求（主要是form表单的请求，xxx.action）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@RequestMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF17C6A3"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>("xxx")</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单画面，点LINK进入检索一览画面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +1389,63 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF03A8D8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFA7EC21"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF52CA11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0080FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFA0A0A0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF17C6A3"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1082,7 +1597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1101,6 +1616,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3868,14 +4392,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3890,8 +4414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2641600" y="3022600"/>
-          <a:ext cx="1758950" cy="889000"/>
+          <a:off x="2650435" y="2628348"/>
+          <a:ext cx="1763367" cy="883478"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4295,15 +4819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154609</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4321,13 +4845,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3521075" y="1228725"/>
-          <a:ext cx="4702175" cy="1793875"/>
+          <a:off x="3532119" y="1222099"/>
+          <a:ext cx="4717635" cy="1406249"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7158"/>
-            <a:gd name="adj2" fmla="val 55221"/>
+            <a:gd name="adj1" fmla="val -4846"/>
+            <a:gd name="adj2" fmla="val 56621"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -4544,30 +5068,83 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>568878</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA83426-006D-4335-9370-B85611A59ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3114261" y="4119218"/>
+          <a:ext cx="3418095" cy="728869"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>11044</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449193</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD09D0D-1ED4-7FCB-9ED9-F813914E3B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B72778D-C5C8-4F72-AB43-439C4D46284F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4575,8 +5152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1651000"/>
-          <a:ext cx="5359400" cy="2387600"/>
+          <a:off x="1336261" y="4478130"/>
+          <a:ext cx="1763367" cy="883478"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4603,6 +5180,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>from.html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4611,23 +5195,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607391</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>382932</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="18" name="フローチャート: 処理 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27065105-BECF-9D5A-4611-0F30B32B0469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA167BA-984E-4C9C-9F4C-E0A1F95E2030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,10 +5219,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2101850" y="2025650"/>
-          <a:ext cx="1657350" cy="317500"/>
+          <a:off x="6570869" y="4108175"/>
+          <a:ext cx="1763367" cy="883478"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4663,6 +5247,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TO.html</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4672,22 +5260,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426001</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+        <xdr:cNvPr id="19" name="爆発: 8 pt 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5E2E6B-9AA4-49AB-9A76-B88B7626DFFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E442ADAA-9EB9-4642-94CA-5A61F02FBB31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4695,70 +5283,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="2578100"/>
-          <a:ext cx="1657350" cy="317500"/>
+          <a:off x="1998869" y="4754218"/>
+          <a:ext cx="1077567" cy="277191"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3747B9-D52E-4202-B5EC-FC6777B2BEA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2108200" y="3187700"/>
-          <a:ext cx="1657350" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="irregularSeal1">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -5084,16 +5612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F3:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="10:12">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -5101,20 +5629,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="10:12">
       <c r="J4" t="s">
         <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="10:12">
       <c r="K5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="10:12">
       <c r="J12" t="s">
         <v>7</v>
       </c>
@@ -5130,18 +5664,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="10:12">
       <c r="J14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="10:12">
       <c r="K15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:11" ht="14.5" thickBot="1"/>
+    <row r="19" spans="6:11" ht="14.5" thickBot="1">
       <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
@@ -5153,8 +5687,8 @@
       <c r="J19" s="12"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:11" ht="14.5" thickBot="1"/>
+    <row r="21" spans="6:11">
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
@@ -5168,7 +5702,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:11">
       <c r="F22" s="5"/>
       <c r="G22" t="s">
         <v>17</v>
@@ -5178,7 +5712,7 @@
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:11">
       <c r="F23" s="5"/>
       <c r="G23" t="s">
         <v>18</v>
@@ -5188,7 +5722,7 @@
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:11" ht="14.5" thickBot="1">
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
         <v>20</v>
@@ -5200,7 +5734,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="26" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:11" ht="14.5" thickBot="1">
       <c r="F26" t="s">
         <v>22</v>
       </c>
@@ -5208,7 +5742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:11">
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
@@ -5220,7 +5754,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:11">
       <c r="F28" s="5"/>
       <c r="G28" t="s">
         <v>26</v>
@@ -5230,7 +5764,7 @@
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:11">
       <c r="F29" s="5"/>
       <c r="G29" t="s">
         <v>28</v>
@@ -5240,7 +5774,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:11">
       <c r="F30" s="5"/>
       <c r="G30" t="s">
         <v>30</v>
@@ -5250,7 +5784,7 @@
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:11">
       <c r="F31" s="5"/>
       <c r="G31" t="s">
         <v>32</v>
@@ -5260,11 +5794,11 @@
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:11">
       <c r="F32" s="5"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:11">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
         <v>34</v>
@@ -5274,7 +5808,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:11">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
         <v>38</v>
@@ -5284,7 +5818,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:11">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
         <v>36</v>
@@ -5294,7 +5828,7 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:11">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
         <v>37</v>
@@ -5304,11 +5838,11 @@
       </c>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:11">
       <c r="F37" s="5"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:11">
       <c r="F38" s="5"/>
       <c r="G38" t="s">
         <v>41</v>
@@ -5318,7 +5852,7 @@
       </c>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:11">
       <c r="F39" s="5"/>
       <c r="G39" t="s">
         <v>42</v>
@@ -5328,11 +5862,11 @@
       </c>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:11">
       <c r="F40" s="5"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:11">
       <c r="F41" s="5"/>
       <c r="G41" t="s">
         <v>45</v>
@@ -5342,11 +5876,11 @@
       </c>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:11">
       <c r="F42" s="5"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="6:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:11" ht="14.5" thickBot="1">
       <c r="F43" s="8"/>
       <c r="G43" s="9" t="s">
         <v>47</v>
@@ -5372,64 +5906,64 @@
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="15" customFormat="1">
       <c r="A33" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="15" customFormat="1">
       <c r="A60" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="P62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="P63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="16:16">
       <c r="P70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="J83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="15" customFormat="1">
       <c r="A88" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="11:11">
       <c r="K190" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11">
       <c r="K197" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" s="15" customFormat="1">
       <c r="A208" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="2:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" s="17" customFormat="1">
       <c r="B214" s="17" t="s">
         <v>55</v>
       </c>
@@ -5446,13 +5980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9219E7B3-F83B-482A-A7A2-ED8AEB0B28D9}">
   <dimension ref="C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:3">
       <c r="C1" t="s">
         <v>61</v>
       </c>
@@ -5467,17 +5999,172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFACCBC8-1D36-4A21-B9CC-CAF17FE9B0D5}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17.5">
+      <c r="E6" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17.5">
+      <c r="E7" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.5">
+      <c r="E8" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.5">
+      <c r="E20" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="17.5">
+      <c r="E30" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
+++ b/springmvc_mybatis_db/res/readme/springmvc_mybatis_db説明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git050701\saisk\springmvc_mybatis_db\res\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tech\git0604\saisk\springmvc_mybatis_db\res\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE35F22-0E6F-478A-91C0-4B82F58EA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8682FBA-979C-4021-B429-A9393A3CA03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,10 +1174,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>手动把original包下面的文件删除。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>/springmvc_mybatis_db/src/cn/itcast/ssm/mapper/original</t>
   </si>
   <si>
@@ -1345,6 +1341,10 @@
   </si>
   <si>
     <t>菜单画面，点LINK进入检索一览画面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面路径的文件会重新生成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6001,9 +6001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFACCBC8-1D36-4A21-B9CC-CAF17FE9B0D5}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -6049,37 +6047,37 @@
     </row>
     <row r="9" spans="2:5">
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="D10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="E11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="D12" t="s">
-        <v>76</v>
+      <c r="C12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" t="s">
-        <v>71</v>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="D15" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="E16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -6089,17 +6087,17 @@
     </row>
     <row r="18" spans="2:5">
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="17.5">
       <c r="E20" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -6109,27 +6107,27 @@
     </row>
     <row r="22" spans="2:5">
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="E24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -6139,17 +6137,17 @@
     </row>
     <row r="28" spans="2:5">
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.5">
       <c r="E30" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -6159,7 +6157,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
